--- a/Heat transfer coefficient distributions.xlsx
+++ b/Heat transfer coefficient distributions.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -133,7 +133,34 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="1"/>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>Розподілення </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="el-GR"/>
+              <a:t>α</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t> №1</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -245,37 +272,121 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="29478912"/>
-        <c:axId val="29480448"/>
+        <c:axId val="79523840"/>
+        <c:axId val="79525376"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="29478912"/>
+        <c:axId val="79523840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1200" b="1" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Довжина ЗВО, м</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU" sz="1200">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="29480448"/>
+        <c:crossAx val="79525376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="29480448"/>
+        <c:axId val="79525376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="el-GR" sz="1200" b="1" i="0" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>α</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="uk-UA" sz="1200" b="1" i="0" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>, </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1200" b="1" i="0" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>Вт/(м</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1200" b="1" i="0" baseline="30000">
+                    <a:effectLst/>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>2</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1200" b="1" i="0" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>∙К)</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU" sz="1200" b="1">
+                  <a:effectLst/>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="29478912"/>
+        <c:crossAx val="79523840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -306,7 +417,43 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="1"/>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1800" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Розподілення </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="el-GR" sz="1800" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>α</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1800" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t> №2</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -418,37 +565,120 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="30503680"/>
-        <c:axId val="30505216"/>
+        <c:axId val="79823616"/>
+        <c:axId val="79825152"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="30503680"/>
+        <c:axId val="79823616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1200" b="1" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Довжина ЗВО, м</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU" sz="1200">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="30505216"/>
+        <c:crossAx val="79825152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="30505216"/>
+        <c:axId val="79825152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="1"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="el-GR" sz="1200" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>α</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="uk-UA" sz="1200" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>, </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1200" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>Вт/(м</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1200" b="1" i="0" u="none" strike="noStrike" baseline="30000">
+                    <a:effectLst/>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>2</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1200" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>∙К)</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU" sz="1200" b="1">
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="30503680"/>
+        <c:crossAx val="79823616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -479,7 +709,64 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="1"/>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1800" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Розподілення </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="el-GR" sz="1800" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>α</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1800" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t> №3</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -615,37 +902,119 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="30529024"/>
-        <c:axId val="30530560"/>
+        <c:axId val="79853056"/>
+        <c:axId val="79854592"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="30529024"/>
+        <c:axId val="79853056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1200">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>Довжина ЗВО, м</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="30530560"/>
+        <c:crossAx val="79854592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="30530560"/>
+        <c:axId val="79854592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="el-GR" sz="1200" b="1" i="0" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>α</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="uk-UA" sz="1200" b="1" i="0" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>, </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1200" b="1" i="0" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>Вт/(м</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1200" b="1" i="0" baseline="30000">
+                    <a:effectLst/>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>2</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1200" b="1" i="0" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>∙К)</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU" sz="1200" b="1">
+                  <a:effectLst/>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="30529024"/>
+        <c:crossAx val="79853056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -693,11 +1062,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="77326208"/>
-        <c:axId val="77327744"/>
+        <c:axId val="79866880"/>
+        <c:axId val="80397056"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="77326208"/>
+        <c:axId val="79866880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -706,7 +1075,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77327744"/>
+        <c:crossAx val="80397056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -714,7 +1083,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="77327744"/>
+        <c:axId val="80397056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -725,14 +1094,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77326208"/>
+        <c:crossAx val="79866880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -14460,11 +14828,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="71013504"/>
-        <c:axId val="71015808"/>
+        <c:axId val="80187776"/>
+        <c:axId val="80189696"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="71013504"/>
+        <c:axId val="80187776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14496,7 +14864,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="71015808"/>
+        <c:crossAx val="80189696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -14506,7 +14874,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="71015808"/>
+        <c:axId val="80189696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14538,7 +14906,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="71013504"/>
+        <c:crossAx val="80187776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -28295,11 +28663,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="77210368"/>
-        <c:axId val="77248768"/>
+        <c:axId val="99792768"/>
+        <c:axId val="99807232"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="77210368"/>
+        <c:axId val="99792768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -28335,14 +28703,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77248768"/>
+        <c:crossAx val="99807232"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -28351,7 +28718,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="77248768"/>
+        <c:axId val="99807232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -28377,14 +28744,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77210368"/>
+        <c:crossAx val="99792768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -28420,15 +28786,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>47624</xdr:colOff>
+      <xdr:colOff>419099</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>42862</xdr:rowOff>
+      <xdr:rowOff>61912</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>342899</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>104774</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -28944,7 +29310,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="U26" sqref="U26"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -29230,7 +29598,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L563"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="M33" sqref="M33"/>
     </sheetView>
   </sheetViews>

--- a/Heat transfer coefficient distributions.xlsx
+++ b/Heat transfer coefficient distributions.xlsx
@@ -1,15 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22130"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED6C7C51-B49A-4DEB-8898-19881801C714}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
+    <sheet name="Лист4" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="Alpha1" localSheetId="1">Лист2!$A$1:$G$564</definedName>
@@ -20,8 +22,8 @@
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="Alpha1" type="6" refreshedVersion="4" background="1" saveData="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" name="Alpha1" type="6" refreshedVersion="4" background="1" saveData="1">
     <textPr codePage="1251" sourceFile="E:\python\Github\MNLZ\Programm\Alpha1.txt" decimal="," thousands=" ">
       <textFields count="7">
         <textField/>
@@ -34,7 +36,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="2" name="Alpha2" type="6" refreshedVersion="4" background="1" saveData="1">
+  <connection id="2" xr16:uid="{00000000-0015-0000-FFFF-FFFF01000000}" name="Alpha2" type="6" refreshedVersion="4" background="1" saveData="1">
     <textPr codePage="1251" sourceFile="E:\python\Github\MNLZ\Programm\Alpha2.txt" decimal="," thousands=" ">
       <textFields count="7">
         <textField/>
@@ -71,7 +73,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -115,12 +117,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -157,7 +162,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -263,6 +267,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BED8-4F15-8241-BAB53A1EDF99}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -303,7 +312,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -379,7 +387,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -404,7 +411,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -450,7 +457,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -556,6 +562,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-81EB-4AFF-A0AE-FCE8A93E5C4E}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -596,7 +607,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -671,7 +681,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -696,7 +705,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -763,7 +772,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -893,6 +901,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1460-4E3A-9B64-9844E93CBD91}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -931,7 +944,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -1007,7 +1019,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -1033,7 +1044,7 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -1116,7 +1127,7 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -1145,7 +1156,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -4570,6 +4580,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A2B1-422C-A60D-D030D9EE0DE0}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -7985,6 +8000,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A2B1-422C-A60D-D030D9EE0DE0}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -11402,6 +11422,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-A2B1-422C-A60D-D030D9EE0DE0}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
@@ -14817,6 +14842,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-A2B1-422C-A60D-D030D9EE0DE0}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -14826,7 +14856,6 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="80187776"/>
         <c:axId val="80189696"/>
@@ -14857,7 +14886,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0" sourceLinked="1"/>
@@ -14899,7 +14927,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
@@ -14913,7 +14940,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -14929,7 +14955,7 @@
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -18405,6 +18431,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3E4F-4A78-A071-D09F1052D292}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -21820,6 +21851,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3E4F-4A78-A071-D09F1052D292}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -25237,6 +25273,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-3E4F-4A78-A071-D09F1052D292}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
@@ -28652,6 +28693,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-3E4F-4A78-A071-D09F1052D292}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -28661,7 +28707,6 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="99792768"/>
         <c:axId val="99807232"/>
@@ -28781,6 +28826,1123 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист4!$A$1:$A$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DFE1-4EC3-ACA9-0EE7FCDF7612}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист4!$B$1:$B$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-DFE1-4EC3-ACA9-0EE7FCDF7612}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="935127920"/>
+        <c:axId val="810875984"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="935127920"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>Швид</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="uk-UA"/>
+                  <a:t>кість</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>,</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="uk-UA" baseline="0"/>
+                  <a:t>м/хв</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="none"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="810875984"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="810875984"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>Витрати, м3/год</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="none"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="935127920"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -28798,7 +29960,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Диаграмма 2"/>
+        <xdr:cNvPr id="3" name="Диаграмма 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -28828,7 +29996,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Диаграмма 3"/>
+        <xdr:cNvPr id="4" name="Диаграмма 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -28858,7 +30032,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Диаграмма 4"/>
+        <xdr:cNvPr id="5" name="Диаграмма 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -28930,7 +30110,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Диаграмма 4"/>
+        <xdr:cNvPr id="5" name="Диаграмма 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -28960,7 +30146,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="Диаграмма 6"/>
+        <xdr:cNvPr id="7" name="Диаграмма 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -28995,7 +30187,54 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Диаграмма 2"/>
+        <xdr:cNvPr id="3" name="Диаграмма 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40CBDA62-096B-44FE-9FB3-E158B4A5DC5B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -29014,11 +30253,11 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Alpha1" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="Alpha1" connectionId="1" xr16:uid="{00000000-0016-0000-0100-000000000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Alpha2" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="Alpha2" connectionId="2" xr16:uid="{00000000-0016-0000-0200-000001000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -29064,7 +30303,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -29097,9 +30336,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -29132,6 +30388,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -29307,10 +30580,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="U26" sqref="U26"/>
     </sheetView>
   </sheetViews>
@@ -29595,7 +30868,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L563"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
@@ -39205,7 +40478,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:N563"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -48812,4 +50085,260 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{103232B3-7464-41FC-A234-89D2437C1A50}">
+  <dimension ref="A1:B30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="W20" sqref="W20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>11</v>
+      </c>
+      <c r="B11">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>12</v>
+      </c>
+      <c r="B12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>13</v>
+      </c>
+      <c r="B13">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>14</v>
+      </c>
+      <c r="B14">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>15</v>
+      </c>
+      <c r="B15">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>16</v>
+      </c>
+      <c r="B16">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>17</v>
+      </c>
+      <c r="B17">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>18</v>
+      </c>
+      <c r="B18">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>19</v>
+      </c>
+      <c r="B19">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>20</v>
+      </c>
+      <c r="B20">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>21</v>
+      </c>
+      <c r="B21">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>22</v>
+      </c>
+      <c r="B22">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>23</v>
+      </c>
+      <c r="B23">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>24</v>
+      </c>
+      <c r="B24">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>25</v>
+      </c>
+      <c r="B25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>26</v>
+      </c>
+      <c r="B26">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>27</v>
+      </c>
+      <c r="B27">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>28</v>
+      </c>
+      <c r="B28">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>29</v>
+      </c>
+      <c r="B29">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>30</v>
+      </c>
+      <c r="B30">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>